--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Force et accélération pour les conditions maximales</t>
   </si>
@@ -189,15 +189,21 @@
   <si>
     <t>Alimentation</t>
   </si>
+  <si>
+    <t>Rayon  m</t>
+  </si>
+  <si>
+    <t>3981 W &gt; puissance motoréducteur</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,19 +236,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,8 +285,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -310,21 +316,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -494,8 +485,103 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -506,7 +592,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -516,21 +602,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -539,43 +614,10 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -588,22 +630,27 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -621,115 +668,124 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -738,126 +794,109 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -878,6 +917,1235 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Couple bogie (N.m)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$E$3:$E$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>13.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$J$3:$J$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>71.376199999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.542866666666669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.376200000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.251199999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.820644444444447</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53.876199999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.285290909090904</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.959533333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49.837738461538457</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.876199999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48.042866666666662</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47.313699999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46.670317647058823</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46.098422222222219</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45.58672631578947</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45.12619999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44.709533333333333</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44.33074545454545</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43.984895652173911</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43.667866666666669</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43.376200000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43.106969230769231</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42.857681481481478</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42.626200000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42.410682758620688</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42.209533333333326</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42.021361290322581</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41.844949999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41.679230303030302</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41.52325882352941</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41.376199999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41.237311111111111</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41.105929729729723</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40.981463157894737</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40.863379487179479</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40.751200000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40.644492682926824</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40.542866666666662</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40.445967441860468</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.353472727272731</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40.26508888888889</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40.180547826086951</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40.099604255319143</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40.022033333333333</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>39.947628571428567</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>39.876199999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>39.807572549019604</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>39.741584615384618</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>39.678086792452831</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>39.616940740740738</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>39.558018181818184</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>39.501199999999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>39.44637543859649</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>39.393441379310339</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>39.342301694915257</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>39.292866666666662</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>39.245052459016392</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>39.198780645161285</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>39.153977777777776</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>39.110574999999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>39.068507692307691</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>39.027715151515153</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF5E-4564-9151-021BD7A171B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="340629296"/>
+        <c:axId val="458045792"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="340629296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458045792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="458045792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="340629296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1143,10 +2411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O81"/>
+  <dimension ref="A1:V120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1162,25 +2430,46 @@
     <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="18.42578125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="1"/>
+    <col min="12" max="12" width="7.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="1"/>
+    <col min="18" max="18" width="16.42578125" style="1" customWidth="1"/>
+    <col min="19" max="20" width="11.42578125" style="1"/>
+    <col min="21" max="21" width="16" style="1" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="28"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+    </row>
+    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1214,8 +2503,19 @@
       <c r="K2" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>30</v>
       </c>
@@ -1252,8 +2552,19 @@
         <v>71.376199999999997</v>
       </c>
       <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>30</v>
       </c>
@@ -1277,7 +2588,7 @@
         <f t="shared" ref="G4:G33" si="1">(I4*E4^2)/2</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="20">
         <f t="shared" ref="H4:H33" si="2">(F4/10)*(I4+10*(B4/100))</f>
         <v>1092.3811111111113</v>
       </c>
@@ -1285,13 +2596,13 @@
         <f t="shared" ref="I4:I33" si="3">D4/E4</f>
         <v>4.6296296296296298</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="20">
         <f t="shared" ref="J4:J33" si="4">H4*0.06</f>
         <v>65.542866666666669</v>
       </c>
       <c r="K4" s="18"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>30</v>
       </c>
@@ -1329,7 +2640,7 @@
       </c>
       <c r="K5" s="11"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>30</v>
       </c>
@@ -1353,7 +2664,7 @@
         <f t="shared" si="1"/>
         <v>4.4444444444444446</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="20">
         <f t="shared" si="2"/>
         <v>970.85333333333335</v>
       </c>
@@ -1361,13 +2672,13 @@
         <f t="shared" si="3"/>
         <v>3.4722222222222219</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="20">
         <f t="shared" si="4"/>
         <v>58.251199999999997</v>
       </c>
       <c r="K6" s="18"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>30</v>
       </c>
@@ -1405,7 +2716,7 @@
       </c>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>30</v>
       </c>
@@ -1429,7 +2740,7 @@
         <f t="shared" si="1"/>
         <v>5.5555555555555554</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="20">
         <f t="shared" si="2"/>
         <v>897.93666666666661</v>
       </c>
@@ -1437,13 +2748,13 @@
         <f t="shared" si="3"/>
         <v>2.7777777777777777</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="20">
         <f t="shared" si="4"/>
         <v>53.876199999999997</v>
       </c>
       <c r="K8" s="18"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>30</v>
       </c>
@@ -1481,7 +2792,7 @@
       </c>
       <c r="K9" s="11"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>30</v>
       </c>
@@ -1505,7 +2816,7 @@
         <f t="shared" si="1"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="20">
         <f t="shared" si="2"/>
         <v>849.32555555555552</v>
       </c>
@@ -1513,14 +2824,13 @@
         <f t="shared" si="3"/>
         <v>2.3148148148148149</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="20">
         <f t="shared" si="4"/>
         <v>50.959533333333333</v>
       </c>
       <c r="K10" s="18"/>
-      <c r="O10" s="24"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>30</v>
       </c>
@@ -1558,7 +2868,7 @@
       </c>
       <c r="K11" s="11"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>30</v>
       </c>
@@ -1582,7 +2892,7 @@
         <f t="shared" si="1"/>
         <v>7.7777777777777768</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="20">
         <f t="shared" si="2"/>
         <v>814.60333333333335</v>
       </c>
@@ -1590,13 +2900,13 @@
         <f t="shared" si="3"/>
         <v>1.9841269841269842</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="20">
         <f t="shared" si="4"/>
         <v>48.876199999999997</v>
       </c>
       <c r="K12" s="18"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>30</v>
       </c>
@@ -1634,7 +2944,7 @@
       </c>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>30</v>
       </c>
@@ -1658,7 +2968,7 @@
         <f t="shared" si="1"/>
         <v>8.8888888888888893</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="20">
         <f t="shared" si="2"/>
         <v>788.56166666666661</v>
       </c>
@@ -1666,13 +2976,13 @@
         <f t="shared" si="3"/>
         <v>1.7361111111111109</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="20">
         <f t="shared" si="4"/>
         <v>47.313699999999997</v>
       </c>
       <c r="K14" s="18"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>30</v>
       </c>
@@ -1710,7 +3020,7 @@
       </c>
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>30</v>
       </c>
@@ -1734,7 +3044,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="20">
         <f t="shared" si="2"/>
         <v>768.30703703703705</v>
       </c>
@@ -1742,7 +3052,7 @@
         <f t="shared" si="3"/>
         <v>1.5432098765432098</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="20">
         <f t="shared" si="4"/>
         <v>46.098422222222219</v>
       </c>
@@ -1810,7 +3120,7 @@
         <f t="shared" si="1"/>
         <v>11.111111111111111</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="20">
         <f t="shared" si="2"/>
         <v>752.10333333333324</v>
       </c>
@@ -1818,7 +3128,7 @@
         <f t="shared" si="3"/>
         <v>1.3888888888888888</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="20">
         <f t="shared" si="4"/>
         <v>45.12619999999999</v>
       </c>
@@ -1886,7 +3196,7 @@
         <f t="shared" si="1"/>
         <v>12.222222222222223</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="20">
         <f t="shared" si="2"/>
         <v>738.84575757575749</v>
       </c>
@@ -1894,7 +3204,7 @@
         <f t="shared" si="3"/>
         <v>1.2626262626262625</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="20">
         <f t="shared" si="4"/>
         <v>44.33074545454545</v>
       </c>
@@ -1962,7 +3272,7 @@
         <f t="shared" si="1"/>
         <v>13.333333333333334</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="20">
         <f t="shared" si="2"/>
         <v>727.79777777777781</v>
       </c>
@@ -1970,7 +3280,7 @@
         <f t="shared" si="3"/>
         <v>1.1574074074074074</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="20">
         <f t="shared" si="4"/>
         <v>43.667866666666669</v>
       </c>
@@ -2038,7 +3348,7 @@
         <f t="shared" si="1"/>
         <v>14.444444444444446</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="20">
         <f t="shared" si="2"/>
         <v>718.44948717948716</v>
       </c>
@@ -2046,7 +3356,7 @@
         <f t="shared" si="3"/>
         <v>1.0683760683760684</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="20">
         <f t="shared" si="4"/>
         <v>43.106969230769231</v>
       </c>
@@ -2114,7 +3424,7 @@
         <f t="shared" si="1"/>
         <v>15.555555555555554</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="20">
         <f t="shared" si="2"/>
         <v>710.43666666666672</v>
       </c>
@@ -2122,7 +3432,7 @@
         <f t="shared" si="3"/>
         <v>0.99206349206349209</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="20">
         <f t="shared" si="4"/>
         <v>42.626200000000004</v>
       </c>
@@ -2190,7 +3500,7 @@
         <f t="shared" si="1"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28" s="20">
         <f t="shared" si="2"/>
         <v>703.49222222222215</v>
       </c>
@@ -2198,7 +3508,7 @@
         <f t="shared" si="3"/>
         <v>0.92592592592592593</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="20">
         <f t="shared" si="4"/>
         <v>42.209533333333326</v>
       </c>
@@ -2266,7 +3576,7 @@
         <f t="shared" si="1"/>
         <v>17.777777777777779</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H30" s="20">
         <f t="shared" si="2"/>
         <v>697.41583333333335</v>
       </c>
@@ -2274,7 +3584,7 @@
         <f t="shared" si="3"/>
         <v>0.86805555555555547</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="20">
         <f t="shared" si="4"/>
         <v>41.844949999999997</v>
       </c>
@@ -2342,7 +3652,7 @@
         <f t="shared" si="1"/>
         <v>18.888888888888886</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H32" s="20">
         <f t="shared" si="2"/>
         <v>692.05431372549015</v>
       </c>
@@ -2350,1040 +3660,2437 @@
         <f t="shared" si="3"/>
         <v>0.81699346405228757</v>
       </c>
-      <c r="J32" s="22">
+      <c r="J32" s="20">
         <f t="shared" si="4"/>
         <v>41.52325882352941</v>
       </c>
       <c r="K32" s="18"/>
     </row>
-    <row r="33" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
-        <v>30</v>
-      </c>
-      <c r="B33" s="12">
-        <v>57.74</v>
-      </c>
-      <c r="C33" s="12">
-        <v>20</v>
-      </c>
-      <c r="D33" s="13">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="86">
+        <v>30</v>
+      </c>
+      <c r="B33" s="86">
+        <v>57.74</v>
+      </c>
+      <c r="C33" s="9">
+        <v>20</v>
+      </c>
+      <c r="D33" s="10">
         <f t="shared" si="0"/>
         <v>5.5555555555555554</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="11">
         <v>7</v>
       </c>
-      <c r="F33" s="12">
-        <v>1050</v>
-      </c>
-      <c r="G33" s="14">
+      <c r="F33" s="9">
+        <v>1050</v>
+      </c>
+      <c r="G33" s="85">
         <f t="shared" si="1"/>
         <v>19.444444444444443</v>
       </c>
-      <c r="H33" s="29">
+      <c r="H33" s="84">
         <f t="shared" si="2"/>
         <v>689.60333333333335</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="11">
         <f t="shared" si="3"/>
         <v>0.79365079365079361</v>
       </c>
-      <c r="J33" s="29">
+      <c r="J33" s="11">
         <f t="shared" si="4"/>
         <v>41.376199999999997</v>
       </c>
-      <c r="K33" s="14"/>
-    </row>
-    <row r="34" spans="1:11" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="K33" s="11"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
+        <v>30</v>
+      </c>
+      <c r="B34" s="9">
+        <v>57.74</v>
+      </c>
+      <c r="C34" s="6">
+        <v>20</v>
+      </c>
+      <c r="D34" s="7">
+        <f>C34/3.6</f>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="E34" s="8">
+        <v>7.2</v>
+      </c>
+      <c r="F34" s="6">
+        <v>1050</v>
+      </c>
+      <c r="G34" s="11">
+        <f>(I34*E34^2)/2</f>
+        <v>20</v>
+      </c>
+      <c r="H34" s="11">
+        <f>(F34/10)*(I34+10*(B34/100))</f>
+        <v>687.28851851851857</v>
+      </c>
+      <c r="I34" s="8">
+        <f>D34/E34</f>
+        <v>0.77160493827160492</v>
+      </c>
+      <c r="J34" s="8">
+        <f>H34*0.06</f>
+        <v>41.237311111111111</v>
+      </c>
+      <c r="K34" s="8"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="16">
+        <v>30</v>
+      </c>
+      <c r="B35" s="16">
+        <v>57.74</v>
+      </c>
+      <c r="C35" s="16">
+        <v>20</v>
+      </c>
+      <c r="D35" s="17">
+        <f t="shared" ref="D35:D64" si="5">C35/3.6</f>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="E35" s="18">
+        <v>7.4</v>
+      </c>
+      <c r="F35" s="16">
+        <v>1050</v>
+      </c>
+      <c r="G35" s="18">
+        <f t="shared" ref="G35:G64" si="6">(I35*E35^2)/2</f>
+        <v>20.555555555555557</v>
+      </c>
+      <c r="H35" s="20">
+        <f t="shared" ref="H35:H64" si="7">(F35/10)*(I35+10*(B35/100))</f>
+        <v>685.0988288288288</v>
+      </c>
+      <c r="I35" s="18">
+        <f t="shared" ref="I35:I64" si="8">D35/E35</f>
+        <v>0.75075075075075071</v>
+      </c>
+      <c r="J35" s="20">
+        <f t="shared" ref="J35:J64" si="9">H35*0.06</f>
+        <v>41.105929729729723</v>
+      </c>
+      <c r="K35" s="18"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
+        <v>30</v>
+      </c>
+      <c r="B36" s="9">
+        <v>57.74</v>
+      </c>
+      <c r="C36" s="9">
+        <v>20</v>
+      </c>
+      <c r="D36" s="10">
+        <f t="shared" si="5"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="E36" s="8">
+        <v>7.6</v>
+      </c>
+      <c r="F36" s="9">
+        <v>1050</v>
+      </c>
+      <c r="G36" s="11">
+        <f t="shared" si="6"/>
+        <v>21.111111111111111</v>
+      </c>
+      <c r="H36" s="8">
+        <f t="shared" si="7"/>
+        <v>683.02438596491231</v>
+      </c>
+      <c r="I36" s="11">
+        <f t="shared" si="8"/>
+        <v>0.73099415204678364</v>
+      </c>
+      <c r="J36" s="8">
+        <f t="shared" si="9"/>
+        <v>40.981463157894737</v>
+      </c>
+      <c r="K36" s="11"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="16">
+        <v>30</v>
+      </c>
+      <c r="B37" s="16">
+        <v>57.74</v>
+      </c>
+      <c r="C37" s="16">
+        <v>20</v>
+      </c>
+      <c r="D37" s="17">
+        <f t="shared" si="5"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="E37" s="18">
+        <v>7.8</v>
+      </c>
+      <c r="F37" s="16">
+        <v>1050</v>
+      </c>
+      <c r="G37" s="18">
+        <f t="shared" si="6"/>
+        <v>21.666666666666664</v>
+      </c>
+      <c r="H37" s="20">
+        <f t="shared" si="7"/>
+        <v>681.05632478632469</v>
+      </c>
+      <c r="I37" s="18">
+        <f t="shared" si="8"/>
+        <v>0.71225071225071224</v>
+      </c>
+      <c r="J37" s="20">
+        <f t="shared" si="9"/>
+        <v>40.863379487179479</v>
+      </c>
+      <c r="K37" s="18"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="9">
+        <v>30</v>
+      </c>
+      <c r="B38" s="9">
+        <v>57.74</v>
+      </c>
+      <c r="C38" s="9">
+        <v>20</v>
+      </c>
+      <c r="D38" s="10">
+        <f t="shared" si="5"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="E38" s="8">
+        <v>8</v>
+      </c>
+      <c r="F38" s="9">
+        <v>1050</v>
+      </c>
+      <c r="G38" s="11">
+        <f t="shared" si="6"/>
+        <v>22.222222222222221</v>
+      </c>
+      <c r="H38" s="8">
+        <f t="shared" si="7"/>
+        <v>679.18666666666672</v>
+      </c>
+      <c r="I38" s="11">
+        <f t="shared" si="8"/>
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="J38" s="8">
+        <f t="shared" si="9"/>
+        <v>40.751200000000004</v>
+      </c>
+      <c r="K38" s="11"/>
+    </row>
+    <row r="39" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="88">
+        <v>30</v>
+      </c>
+      <c r="B39" s="88">
+        <v>57.74</v>
+      </c>
+      <c r="C39" s="90">
+        <v>20</v>
+      </c>
+      <c r="D39" s="89">
+        <f t="shared" si="5"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="E39" s="87">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F39" s="88">
+        <v>1050</v>
+      </c>
+      <c r="G39" s="87">
+        <f t="shared" si="6"/>
+        <v>22.777777777777775</v>
+      </c>
+      <c r="H39" s="87">
+        <f t="shared" si="7"/>
+        <v>677.40821138211379</v>
+      </c>
+      <c r="I39" s="87">
+        <f t="shared" si="8"/>
+        <v>0.6775067750677507</v>
+      </c>
+      <c r="J39" s="87">
+        <f t="shared" si="9"/>
+        <v>40.644492682926824</v>
+      </c>
+      <c r="K39" s="87"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
+        <v>30</v>
+      </c>
+      <c r="B40" s="6">
+        <v>57.74</v>
+      </c>
+      <c r="C40" s="91">
+        <v>20</v>
+      </c>
+      <c r="D40" s="7">
+        <f t="shared" si="5"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="E40" s="8">
+        <v>8.4</v>
+      </c>
+      <c r="F40" s="6">
+        <v>1050</v>
+      </c>
+      <c r="G40" s="8">
+        <f t="shared" si="6"/>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="H40" s="8">
+        <f t="shared" si="7"/>
+        <v>675.71444444444444</v>
+      </c>
+      <c r="I40" s="8">
+        <f t="shared" si="8"/>
+        <v>0.66137566137566128</v>
+      </c>
+      <c r="J40" s="8">
+        <f t="shared" si="9"/>
+        <v>40.542866666666662</v>
+      </c>
+      <c r="K40" s="8"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="16">
+        <v>30</v>
+      </c>
+      <c r="B41" s="16">
+        <v>57.74</v>
+      </c>
+      <c r="C41" s="16">
+        <v>20</v>
+      </c>
+      <c r="D41" s="17">
+        <f t="shared" si="5"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="E41" s="18">
+        <v>8.6</v>
+      </c>
+      <c r="F41" s="16">
+        <v>1050</v>
+      </c>
+      <c r="G41" s="18">
+        <f t="shared" si="6"/>
+        <v>23.888888888888886</v>
+      </c>
+      <c r="H41" s="20">
+        <f t="shared" si="7"/>
+        <v>674.09945736434111</v>
+      </c>
+      <c r="I41" s="18">
+        <f t="shared" si="8"/>
+        <v>0.64599483204134367</v>
+      </c>
+      <c r="J41" s="20">
+        <f t="shared" si="9"/>
+        <v>40.445967441860468</v>
+      </c>
+      <c r="K41" s="18"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="9">
+        <v>30</v>
+      </c>
+      <c r="B42" s="9">
+        <v>57.74</v>
+      </c>
+      <c r="C42" s="9">
+        <v>20</v>
+      </c>
+      <c r="D42" s="10">
+        <f t="shared" si="5"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="E42" s="8">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F42" s="9">
+        <v>1050</v>
+      </c>
+      <c r="G42" s="11">
+        <f t="shared" si="6"/>
+        <v>24.444444444444446</v>
+      </c>
+      <c r="H42" s="8">
+        <f t="shared" si="7"/>
+        <v>672.55787878787885</v>
+      </c>
+      <c r="I42" s="11">
+        <f t="shared" si="8"/>
+        <v>0.63131313131313127</v>
+      </c>
+      <c r="J42" s="8">
+        <f t="shared" si="9"/>
+        <v>40.353472727272731</v>
+      </c>
+      <c r="K42" s="11"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="16">
+        <v>30</v>
+      </c>
+      <c r="B43" s="16">
+        <v>57.74</v>
+      </c>
+      <c r="C43" s="16">
+        <v>20</v>
+      </c>
+      <c r="D43" s="17">
+        <f t="shared" si="5"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="E43" s="18">
+        <v>9</v>
+      </c>
+      <c r="F43" s="16">
+        <v>1050</v>
+      </c>
+      <c r="G43" s="18">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="H43" s="20">
+        <f t="shared" si="7"/>
+        <v>671.08481481481488</v>
+      </c>
+      <c r="I43" s="18">
+        <f t="shared" si="8"/>
+        <v>0.61728395061728392</v>
+      </c>
+      <c r="J43" s="20">
+        <f t="shared" si="9"/>
+        <v>40.26508888888889</v>
+      </c>
+      <c r="K43" s="18"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="9">
+        <v>30</v>
+      </c>
+      <c r="B44" s="9">
+        <v>57.74</v>
+      </c>
+      <c r="C44" s="9">
+        <v>20</v>
+      </c>
+      <c r="D44" s="10">
+        <f t="shared" si="5"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="E44" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F44" s="9">
+        <v>1050</v>
+      </c>
+      <c r="G44" s="11">
+        <f t="shared" si="6"/>
+        <v>25.555555555555554</v>
+      </c>
+      <c r="H44" s="8">
+        <f t="shared" si="7"/>
+        <v>669.67579710144923</v>
+      </c>
+      <c r="I44" s="11">
+        <f t="shared" si="8"/>
+        <v>0.60386473429951693</v>
+      </c>
+      <c r="J44" s="8">
+        <f t="shared" si="9"/>
+        <v>40.180547826086951</v>
+      </c>
+      <c r="K44" s="11"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="16">
+        <v>30</v>
+      </c>
+      <c r="B45" s="16">
+        <v>57.74</v>
+      </c>
+      <c r="C45" s="16">
+        <v>20</v>
+      </c>
+      <c r="D45" s="17">
+        <f t="shared" si="5"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="E45" s="18">
+        <v>9.4</v>
+      </c>
+      <c r="F45" s="16">
+        <v>1050</v>
+      </c>
+      <c r="G45" s="18">
+        <f t="shared" si="6"/>
+        <v>26.111111111111114</v>
+      </c>
+      <c r="H45" s="20">
+        <f t="shared" si="7"/>
+        <v>668.32673758865246</v>
+      </c>
+      <c r="I45" s="18">
+        <f t="shared" si="8"/>
+        <v>0.59101654846335694</v>
+      </c>
+      <c r="J45" s="20">
+        <f t="shared" si="9"/>
+        <v>40.099604255319143</v>
+      </c>
+      <c r="K45" s="18"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="9">
+        <v>30</v>
+      </c>
+      <c r="B46" s="9">
+        <v>57.74</v>
+      </c>
+      <c r="C46" s="9">
+        <v>20</v>
+      </c>
+      <c r="D46" s="10">
+        <f t="shared" si="5"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="E46" s="8">
+        <v>9.6</v>
+      </c>
+      <c r="F46" s="9">
+        <v>1050</v>
+      </c>
+      <c r="G46" s="11">
+        <f t="shared" si="6"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="H46" s="8">
+        <f t="shared" si="7"/>
+        <v>667.0338888888889</v>
+      </c>
+      <c r="I46" s="11">
+        <f t="shared" si="8"/>
+        <v>0.57870370370370372</v>
+      </c>
+      <c r="J46" s="8">
+        <f t="shared" si="9"/>
+        <v>40.022033333333333</v>
+      </c>
+      <c r="K46" s="11"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="16">
+        <v>30</v>
+      </c>
+      <c r="B47" s="16">
+        <v>57.74</v>
+      </c>
+      <c r="C47" s="16">
+        <v>20</v>
+      </c>
+      <c r="D47" s="17">
+        <f t="shared" si="5"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="E47" s="18">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F47" s="16">
+        <v>1050</v>
+      </c>
+      <c r="G47" s="18">
+        <f t="shared" si="6"/>
+        <v>27.222222222222221</v>
+      </c>
+      <c r="H47" s="20">
+        <f t="shared" si="7"/>
+        <v>665.7938095238095</v>
+      </c>
+      <c r="I47" s="18">
+        <f t="shared" si="8"/>
+        <v>0.56689342403628107</v>
+      </c>
+      <c r="J47" s="20">
+        <f t="shared" si="9"/>
+        <v>39.947628571428567</v>
+      </c>
+      <c r="K47" s="18"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="9">
+        <v>30</v>
+      </c>
+      <c r="B48" s="9">
+        <v>57.74</v>
+      </c>
+      <c r="C48" s="9">
+        <v>20</v>
+      </c>
+      <c r="D48" s="10">
+        <f t="shared" si="5"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="E48" s="8">
+        <v>10</v>
+      </c>
+      <c r="F48" s="9">
+        <v>1050</v>
+      </c>
+      <c r="G48" s="11">
+        <f t="shared" si="6"/>
+        <v>27.777777777777779</v>
+      </c>
+      <c r="H48" s="8">
+        <f t="shared" si="7"/>
+        <v>664.60333333333335</v>
+      </c>
+      <c r="I48" s="11">
+        <f t="shared" si="8"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="J48" s="8">
+        <f t="shared" si="9"/>
+        <v>39.876199999999997</v>
+      </c>
+      <c r="K48" s="11"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="16">
+        <v>30</v>
+      </c>
+      <c r="B49" s="16">
+        <v>57.74</v>
+      </c>
+      <c r="C49" s="16">
+        <v>20</v>
+      </c>
+      <c r="D49" s="17">
+        <f t="shared" si="5"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="E49" s="18">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F49" s="16">
+        <v>1050</v>
+      </c>
+      <c r="G49" s="18">
+        <f t="shared" si="6"/>
+        <v>28.333333333333332</v>
+      </c>
+      <c r="H49" s="20">
+        <f t="shared" si="7"/>
+        <v>663.45954248366013</v>
+      </c>
+      <c r="I49" s="18">
+        <f t="shared" si="8"/>
+        <v>0.54466230936819171</v>
+      </c>
+      <c r="J49" s="20">
+        <f t="shared" si="9"/>
+        <v>39.807572549019604</v>
+      </c>
+      <c r="K49" s="18"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="9">
+        <v>30</v>
+      </c>
+      <c r="B50" s="9">
+        <v>57.74</v>
+      </c>
+      <c r="C50" s="9">
+        <v>20</v>
+      </c>
+      <c r="D50" s="10">
+        <f t="shared" si="5"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="E50" s="8">
+        <v>10.4</v>
+      </c>
+      <c r="F50" s="9">
+        <v>1050</v>
+      </c>
+      <c r="G50" s="11">
+        <f t="shared" si="6"/>
+        <v>28.888888888888893</v>
+      </c>
+      <c r="H50" s="8">
+        <f t="shared" si="7"/>
+        <v>662.35974358974363</v>
+      </c>
+      <c r="I50" s="11">
+        <f t="shared" si="8"/>
+        <v>0.53418803418803418</v>
+      </c>
+      <c r="J50" s="8">
+        <f t="shared" si="9"/>
+        <v>39.741584615384618</v>
+      </c>
+      <c r="K50" s="11"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="16">
+        <v>30</v>
+      </c>
+      <c r="B51" s="16">
+        <v>57.74</v>
+      </c>
+      <c r="C51" s="16">
+        <v>20</v>
+      </c>
+      <c r="D51" s="17">
+        <f t="shared" si="5"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="E51" s="18">
+        <v>10.6</v>
+      </c>
+      <c r="F51" s="16">
+        <v>1050</v>
+      </c>
+      <c r="G51" s="18">
+        <f t="shared" si="6"/>
+        <v>29.444444444444446</v>
+      </c>
+      <c r="H51" s="20">
+        <f t="shared" si="7"/>
+        <v>661.30144654088053</v>
+      </c>
+      <c r="I51" s="18">
+        <f t="shared" si="8"/>
+        <v>0.52410901467505244</v>
+      </c>
+      <c r="J51" s="20">
+        <f t="shared" si="9"/>
+        <v>39.678086792452831</v>
+      </c>
+      <c r="K51" s="18"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="9">
+        <v>30</v>
+      </c>
+      <c r="B52" s="9">
+        <v>57.74</v>
+      </c>
+      <c r="C52" s="9">
+        <v>20</v>
+      </c>
+      <c r="D52" s="10">
+        <f t="shared" si="5"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="E52" s="8">
+        <v>10.8</v>
+      </c>
+      <c r="F52" s="9">
+        <v>1050</v>
+      </c>
+      <c r="G52" s="11">
+        <f t="shared" si="6"/>
+        <v>30.000000000000004</v>
+      </c>
+      <c r="H52" s="8">
+        <f t="shared" si="7"/>
+        <v>660.28234567901234</v>
+      </c>
+      <c r="I52" s="11">
+        <f t="shared" si="8"/>
+        <v>0.51440329218106995</v>
+      </c>
+      <c r="J52" s="8">
+        <f t="shared" si="9"/>
+        <v>39.616940740740738</v>
+      </c>
+      <c r="K52" s="11"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="16">
+        <v>30</v>
+      </c>
+      <c r="B53" s="16">
+        <v>57.74</v>
+      </c>
+      <c r="C53" s="16">
+        <v>20</v>
+      </c>
+      <c r="D53" s="17">
+        <f t="shared" si="5"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="E53" s="18">
         <v>11</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="21" t="s">
+      <c r="F53" s="16">
+        <v>1050</v>
+      </c>
+      <c r="G53" s="18">
+        <f t="shared" si="6"/>
+        <v>30.555555555555557</v>
+      </c>
+      <c r="H53" s="20">
+        <f t="shared" si="7"/>
+        <v>659.3003030303031</v>
+      </c>
+      <c r="I53" s="18">
+        <f t="shared" si="8"/>
+        <v>0.50505050505050508</v>
+      </c>
+      <c r="J53" s="20">
+        <f t="shared" si="9"/>
+        <v>39.558018181818184</v>
+      </c>
+      <c r="K53" s="18"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="9">
+        <v>30</v>
+      </c>
+      <c r="B54" s="9">
+        <v>57.74</v>
+      </c>
+      <c r="C54" s="9">
+        <v>20</v>
+      </c>
+      <c r="D54" s="10">
+        <f t="shared" si="5"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="E54" s="8">
+        <v>11.2</v>
+      </c>
+      <c r="F54" s="9">
+        <v>1050</v>
+      </c>
+      <c r="G54" s="11">
+        <f t="shared" si="6"/>
+        <v>31.111111111111107</v>
+      </c>
+      <c r="H54" s="8">
+        <f t="shared" si="7"/>
+        <v>658.35333333333335</v>
+      </c>
+      <c r="I54" s="11">
+        <f t="shared" si="8"/>
+        <v>0.49603174603174605</v>
+      </c>
+      <c r="J54" s="8">
+        <f t="shared" si="9"/>
+        <v>39.501199999999997</v>
+      </c>
+      <c r="K54" s="11"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="16">
+        <v>30</v>
+      </c>
+      <c r="B55" s="16">
+        <v>57.74</v>
+      </c>
+      <c r="C55" s="16">
+        <v>20</v>
+      </c>
+      <c r="D55" s="17">
+        <f t="shared" si="5"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="E55" s="18">
+        <v>11.4</v>
+      </c>
+      <c r="F55" s="16">
+        <v>1050</v>
+      </c>
+      <c r="G55" s="18">
+        <f t="shared" si="6"/>
+        <v>31.666666666666668</v>
+      </c>
+      <c r="H55" s="20">
+        <f t="shared" si="7"/>
+        <v>657.43959064327487</v>
+      </c>
+      <c r="I55" s="18">
+        <f t="shared" si="8"/>
+        <v>0.48732943469785572</v>
+      </c>
+      <c r="J55" s="20">
+        <f t="shared" si="9"/>
+        <v>39.44637543859649</v>
+      </c>
+      <c r="K55" s="18"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="9">
+        <v>30</v>
+      </c>
+      <c r="B56" s="9">
+        <v>57.74</v>
+      </c>
+      <c r="C56" s="9">
+        <v>20</v>
+      </c>
+      <c r="D56" s="10">
+        <f t="shared" si="5"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="E56" s="8">
+        <v>11.6</v>
+      </c>
+      <c r="F56" s="9">
+        <v>1050</v>
+      </c>
+      <c r="G56" s="11">
+        <f t="shared" si="6"/>
+        <v>32.222222222222221</v>
+      </c>
+      <c r="H56" s="8">
+        <f t="shared" si="7"/>
+        <v>656.55735632183905</v>
+      </c>
+      <c r="I56" s="11">
+        <f t="shared" si="8"/>
+        <v>0.47892720306513409</v>
+      </c>
+      <c r="J56" s="8">
+        <f t="shared" si="9"/>
+        <v>39.393441379310339</v>
+      </c>
+      <c r="K56" s="11"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="16">
+        <v>30</v>
+      </c>
+      <c r="B57" s="16">
+        <v>57.74</v>
+      </c>
+      <c r="C57" s="16">
+        <v>20</v>
+      </c>
+      <c r="D57" s="17">
+        <f t="shared" si="5"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="E57" s="18">
+        <v>11.8</v>
+      </c>
+      <c r="F57" s="16">
+        <v>1050</v>
+      </c>
+      <c r="G57" s="18">
+        <f t="shared" si="6"/>
+        <v>32.777777777777779</v>
+      </c>
+      <c r="H57" s="20">
+        <f t="shared" si="7"/>
+        <v>655.70502824858761</v>
+      </c>
+      <c r="I57" s="18">
+        <f t="shared" si="8"/>
+        <v>0.47080979284369112</v>
+      </c>
+      <c r="J57" s="20">
+        <f t="shared" si="9"/>
+        <v>39.342301694915257</v>
+      </c>
+      <c r="K57" s="18"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="9">
+        <v>30</v>
+      </c>
+      <c r="B58" s="9">
+        <v>57.74</v>
+      </c>
+      <c r="C58" s="9">
+        <v>20</v>
+      </c>
+      <c r="D58" s="10">
+        <f t="shared" si="5"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="E58" s="8">
+        <v>12</v>
+      </c>
+      <c r="F58" s="9">
+        <v>1050</v>
+      </c>
+      <c r="G58" s="11">
+        <f t="shared" si="6"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="H58" s="8">
+        <f t="shared" si="7"/>
+        <v>654.88111111111107</v>
+      </c>
+      <c r="I58" s="11">
+        <f t="shared" si="8"/>
+        <v>0.46296296296296297</v>
+      </c>
+      <c r="J58" s="8">
+        <f t="shared" si="9"/>
+        <v>39.292866666666662</v>
+      </c>
+      <c r="K58" s="11"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="16">
+        <v>30</v>
+      </c>
+      <c r="B59" s="16">
+        <v>57.74</v>
+      </c>
+      <c r="C59" s="16">
+        <v>20</v>
+      </c>
+      <c r="D59" s="17">
+        <f t="shared" si="5"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="E59" s="18">
+        <v>12.2</v>
+      </c>
+      <c r="F59" s="16">
+        <v>1050</v>
+      </c>
+      <c r="G59" s="18">
+        <f t="shared" si="6"/>
+        <v>33.888888888888886</v>
+      </c>
+      <c r="H59" s="20">
+        <f t="shared" si="7"/>
+        <v>654.08420765027324</v>
+      </c>
+      <c r="I59" s="18">
+        <f t="shared" si="8"/>
+        <v>0.45537340619307831</v>
+      </c>
+      <c r="J59" s="20">
+        <f t="shared" si="9"/>
+        <v>39.245052459016392</v>
+      </c>
+      <c r="K59" s="18"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="9">
+        <v>30</v>
+      </c>
+      <c r="B60" s="9">
+        <v>57.74</v>
+      </c>
+      <c r="C60" s="9">
+        <v>20</v>
+      </c>
+      <c r="D60" s="10">
+        <f t="shared" si="5"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="E60" s="8">
+        <v>12.4</v>
+      </c>
+      <c r="F60" s="9">
+        <v>1050</v>
+      </c>
+      <c r="G60" s="11">
+        <f t="shared" si="6"/>
+        <v>34.444444444444443</v>
+      </c>
+      <c r="H60" s="8">
+        <f t="shared" si="7"/>
+        <v>653.31301075268811</v>
+      </c>
+      <c r="I60" s="11">
+        <f t="shared" si="8"/>
+        <v>0.4480286738351254</v>
+      </c>
+      <c r="J60" s="8">
+        <f t="shared" si="9"/>
+        <v>39.198780645161285</v>
+      </c>
+      <c r="K60" s="11"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="16">
+        <v>30</v>
+      </c>
+      <c r="B61" s="16">
+        <v>57.74</v>
+      </c>
+      <c r="C61" s="16">
+        <v>20</v>
+      </c>
+      <c r="D61" s="17">
+        <f t="shared" si="5"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="E61" s="18">
+        <v>12.6</v>
+      </c>
+      <c r="F61" s="16">
+        <v>1050</v>
+      </c>
+      <c r="G61" s="18">
+        <f t="shared" si="6"/>
+        <v>34.999999999999993</v>
+      </c>
+      <c r="H61" s="20">
+        <f t="shared" si="7"/>
+        <v>652.56629629629629</v>
+      </c>
+      <c r="I61" s="18">
+        <f t="shared" si="8"/>
+        <v>0.44091710758377423</v>
+      </c>
+      <c r="J61" s="20">
+        <f t="shared" si="9"/>
+        <v>39.153977777777776</v>
+      </c>
+      <c r="K61" s="18"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="9">
+        <v>30</v>
+      </c>
+      <c r="B62" s="9">
+        <v>57.74</v>
+      </c>
+      <c r="C62" s="9">
+        <v>20</v>
+      </c>
+      <c r="D62" s="10">
+        <f t="shared" si="5"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="E62" s="8">
+        <v>12.8</v>
+      </c>
+      <c r="F62" s="9">
+        <v>1050</v>
+      </c>
+      <c r="G62" s="11">
+        <f t="shared" si="6"/>
+        <v>35.555555555555557</v>
+      </c>
+      <c r="H62" s="8">
+        <f t="shared" si="7"/>
+        <v>651.84291666666661</v>
+      </c>
+      <c r="I62" s="11">
+        <f t="shared" si="8"/>
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="J62" s="8">
+        <f t="shared" si="9"/>
+        <v>39.110574999999997</v>
+      </c>
+      <c r="K62" s="11"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="16">
+        <v>30</v>
+      </c>
+      <c r="B63" s="16">
+        <v>57.74</v>
+      </c>
+      <c r="C63" s="16">
+        <v>20</v>
+      </c>
+      <c r="D63" s="17">
+        <f t="shared" si="5"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="E63" s="18">
         <v>13</v>
       </c>
-      <c r="H34" s="23" t="s">
+      <c r="F63" s="16">
+        <v>1050</v>
+      </c>
+      <c r="G63" s="18">
+        <f t="shared" si="6"/>
+        <v>36.111111111111107</v>
+      </c>
+      <c r="H63" s="20">
+        <f t="shared" si="7"/>
+        <v>651.1417948717949</v>
+      </c>
+      <c r="I63" s="18">
+        <f t="shared" si="8"/>
+        <v>0.42735042735042733</v>
+      </c>
+      <c r="J63" s="20">
+        <f t="shared" si="9"/>
+        <v>39.068507692307691</v>
+      </c>
+      <c r="K63" s="18"/>
+    </row>
+    <row r="64" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="12">
+        <v>30</v>
+      </c>
+      <c r="B64" s="12">
+        <v>57.74</v>
+      </c>
+      <c r="C64" s="12">
+        <v>20</v>
+      </c>
+      <c r="D64" s="13">
+        <f t="shared" si="5"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="E64" s="22">
+        <v>13.2</v>
+      </c>
+      <c r="F64" s="12">
+        <v>1050</v>
+      </c>
+      <c r="G64" s="14">
+        <f t="shared" si="6"/>
+        <v>36.666666666666664</v>
+      </c>
+      <c r="H64" s="22">
+        <f t="shared" si="7"/>
+        <v>650.46191919191926</v>
+      </c>
+      <c r="I64" s="14">
+        <f t="shared" si="8"/>
+        <v>0.4208754208754209</v>
+      </c>
+      <c r="J64" s="22">
+        <f t="shared" si="9"/>
+        <v>39.027715151515153</v>
+      </c>
+      <c r="K64" s="14"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="82"/>
+      <c r="G65" s="82"/>
+      <c r="H65" s="83"/>
+      <c r="I65" s="82"/>
+      <c r="J65" s="82"/>
+      <c r="K65" s="3"/>
+    </row>
+    <row r="66" spans="1:11" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" s="19"/>
+      <c r="G66" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="21" t="s">
+      <c r="I66" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="J34" s="20"/>
-      <c r="K34" s="19"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="25" t="s">
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="39" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="32" t="s">
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+    </row>
+    <row r="78" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="34"/>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="41" t="s">
+      <c r="B79" s="42"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
+      <c r="K79" s="43"/>
+    </row>
+    <row r="80" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="42"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="61" t="s">
+      <c r="C80" s="30"/>
+      <c r="D80" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="62"/>
-      <c r="F41" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" s="41" t="s">
+      <c r="E80" s="35"/>
+      <c r="F80" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G80" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="43"/>
-      <c r="I41" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41" s="45" t="s">
+      <c r="H80" s="30"/>
+      <c r="I80" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J80" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K41" s="44" t="s">
+      <c r="K80" s="23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="50">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="B81" s="67">
         <f>20/3.6</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="B42" s="51"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="67">
-        <f>A42/0.06</f>
+      <c r="C81" s="63"/>
+      <c r="D81" s="36">
+        <f>B81/A81</f>
         <v>92.592592592592595</v>
       </c>
-      <c r="E42" s="68"/>
-      <c r="F42" s="66">
-        <f>D42*60/(2*PI())</f>
+      <c r="E81" s="37"/>
+      <c r="F81" s="48">
+        <f>D81*60/(2*PI())</f>
         <v>884.19412828830752</v>
       </c>
-      <c r="G42" s="35"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="31"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="53">
+      <c r="G81" s="31"/>
+      <c r="H81" s="32"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="57"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="B82" s="68">
         <f>20/3.6</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="B43" s="54"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="69">
-        <f t="shared" ref="D43:D76" si="5">A43/0.06</f>
+      <c r="C82" s="64"/>
+      <c r="D82" s="73">
+        <f t="shared" ref="D82:D115" si="10">B82/A82</f>
         <v>92.592592592592595</v>
       </c>
-      <c r="E43" s="70"/>
-      <c r="F43" s="73">
-        <f t="shared" ref="F43:F76" si="6">D43*60/(2*PI())</f>
+      <c r="E82" s="74"/>
+      <c r="F82" s="49">
+        <f t="shared" ref="F82:F115" si="11">D82*60/(2*PI())</f>
         <v>884.19412828830752</v>
       </c>
-      <c r="G43" s="37"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="40"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="56">
-        <f t="shared" ref="A44:A76" si="7">20/3.6</f>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="B44" s="57"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="69">
-        <f t="shared" si="5"/>
+      <c r="G82" s="52"/>
+      <c r="H82" s="45"/>
+      <c r="I82" s="58"/>
+      <c r="J82" s="46"/>
+      <c r="K82" s="47"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="B83" s="69">
+        <f t="shared" ref="B83:B115" si="12">20/3.6</f>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C83" s="65"/>
+      <c r="D83" s="33">
+        <f t="shared" si="10"/>
         <v>92.592592592592595</v>
       </c>
-      <c r="E44" s="70"/>
-      <c r="F44" s="73">
-        <f t="shared" si="6"/>
+      <c r="E83" s="75"/>
+      <c r="F83" s="50">
+        <f t="shared" si="11"/>
         <v>884.19412828830752</v>
       </c>
-      <c r="G44" s="46"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="49"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="56">
-        <f t="shared" si="7"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="B45" s="57"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="69">
-        <f t="shared" si="5"/>
+      <c r="G83" s="53"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="59"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="25"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="B84" s="69">
+        <f t="shared" si="12"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C84" s="65"/>
+      <c r="D84" s="73">
+        <f t="shared" si="10"/>
         <v>92.592592592592595</v>
       </c>
-      <c r="E45" s="70"/>
-      <c r="F45" s="73">
-        <f t="shared" si="6"/>
+      <c r="E84" s="74"/>
+      <c r="F84" s="50">
+        <f t="shared" si="11"/>
         <v>884.19412828830752</v>
       </c>
-      <c r="G45" s="46"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="49"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="56">
-        <f t="shared" si="7"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="B46" s="57"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="69">
-        <f t="shared" si="5"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="59"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="25"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="B85" s="69">
+        <f t="shared" si="12"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C85" s="65"/>
+      <c r="D85" s="33">
+        <f t="shared" si="10"/>
         <v>92.592592592592595</v>
       </c>
-      <c r="E46" s="70"/>
-      <c r="F46" s="73">
-        <f t="shared" si="6"/>
+      <c r="E85" s="75"/>
+      <c r="F85" s="50">
+        <f t="shared" si="11"/>
         <v>884.19412828830752</v>
       </c>
-      <c r="G46" s="46"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="49"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="56">
-        <f t="shared" si="7"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="B47" s="57"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="69">
-        <f t="shared" si="5"/>
+      <c r="G85" s="53"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="59"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="25"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="B86" s="69">
+        <f t="shared" si="12"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C86" s="65"/>
+      <c r="D86" s="73">
+        <f t="shared" si="10"/>
         <v>92.592592592592595</v>
       </c>
-      <c r="E47" s="70"/>
-      <c r="F47" s="73">
-        <f t="shared" si="6"/>
+      <c r="E86" s="74"/>
+      <c r="F86" s="50">
+        <f t="shared" si="11"/>
         <v>884.19412828830752</v>
       </c>
-      <c r="G47" s="46"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="49"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="56">
-        <f t="shared" si="7"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="B48" s="57"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="69">
-        <f t="shared" si="5"/>
+      <c r="G86" s="53"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="59"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="25"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="B87" s="69">
+        <f t="shared" si="12"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C87" s="65"/>
+      <c r="D87" s="76">
+        <f t="shared" si="10"/>
         <v>92.592592592592595</v>
       </c>
-      <c r="E48" s="70"/>
-      <c r="F48" s="73">
-        <f t="shared" si="6"/>
+      <c r="E87" s="77"/>
+      <c r="F87" s="50">
+        <f t="shared" si="11"/>
         <v>884.19412828830752</v>
       </c>
-      <c r="G48" s="46"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="49"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="56">
-        <f t="shared" si="7"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="B49" s="57"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="69">
-        <f t="shared" si="5"/>
+      <c r="G87" s="53"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="59"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="25"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="B88" s="69">
+        <f t="shared" si="12"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C88" s="65"/>
+      <c r="D88" s="76">
+        <f t="shared" si="10"/>
         <v>92.592592592592595</v>
       </c>
-      <c r="E49" s="70"/>
-      <c r="F49" s="73">
-        <f t="shared" si="6"/>
+      <c r="E88" s="77"/>
+      <c r="F88" s="50">
+        <f t="shared" si="11"/>
         <v>884.19412828830752</v>
       </c>
-      <c r="G49" s="46"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="49"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="56">
-        <f t="shared" si="7"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="B50" s="57"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="69">
-        <f t="shared" si="5"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="59"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="25"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="B89" s="69">
+        <f t="shared" si="12"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C89" s="65"/>
+      <c r="D89" s="76">
+        <f t="shared" si="10"/>
         <v>92.592592592592595</v>
       </c>
-      <c r="E50" s="70"/>
-      <c r="F50" s="73">
-        <f t="shared" si="6"/>
+      <c r="E89" s="77"/>
+      <c r="F89" s="50">
+        <f t="shared" si="11"/>
         <v>884.19412828830752</v>
       </c>
-      <c r="G50" s="46"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="49"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="56">
-        <f t="shared" si="7"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="B51" s="57"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="69">
-        <f t="shared" si="5"/>
+      <c r="G89" s="53"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="59"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="25"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="B90" s="69">
+        <f t="shared" si="12"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C90" s="65"/>
+      <c r="D90" s="76">
+        <f t="shared" si="10"/>
         <v>92.592592592592595</v>
       </c>
-      <c r="E51" s="70"/>
-      <c r="F51" s="73">
-        <f t="shared" si="6"/>
+      <c r="E90" s="77"/>
+      <c r="F90" s="50">
+        <f t="shared" si="11"/>
         <v>884.19412828830752</v>
       </c>
-      <c r="G51" s="46"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="49"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="56">
-        <f t="shared" si="7"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="B52" s="57"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="69">
-        <f t="shared" si="5"/>
+      <c r="G90" s="53"/>
+      <c r="H90" s="28"/>
+      <c r="I90" s="59"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="25"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="B91" s="69">
+        <f t="shared" si="12"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C91" s="65"/>
+      <c r="D91" s="76">
+        <f t="shared" si="10"/>
         <v>92.592592592592595</v>
       </c>
-      <c r="E52" s="70"/>
-      <c r="F52" s="73">
-        <f t="shared" si="6"/>
+      <c r="E91" s="77"/>
+      <c r="F91" s="50">
+        <f t="shared" si="11"/>
         <v>884.19412828830752</v>
       </c>
-      <c r="G52" s="46"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="49"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="56">
-        <f t="shared" si="7"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="B53" s="57"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="69">
-        <f t="shared" si="5"/>
+      <c r="G91" s="53"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="59"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="25"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="B92" s="69">
+        <f t="shared" si="12"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C92" s="65"/>
+      <c r="D92" s="76">
+        <f t="shared" si="10"/>
         <v>92.592592592592595</v>
       </c>
-      <c r="E53" s="70"/>
-      <c r="F53" s="73">
-        <f t="shared" si="6"/>
+      <c r="E92" s="77"/>
+      <c r="F92" s="50">
+        <f t="shared" si="11"/>
         <v>884.19412828830752</v>
       </c>
-      <c r="G53" s="46"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="49"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="56">
-        <f t="shared" si="7"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="B54" s="57"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="69">
-        <f t="shared" si="5"/>
+      <c r="G92" s="53"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="59"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="25"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="B93" s="69">
+        <f t="shared" si="12"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C93" s="65"/>
+      <c r="D93" s="76">
+        <f t="shared" si="10"/>
         <v>92.592592592592595</v>
       </c>
-      <c r="E54" s="70"/>
-      <c r="F54" s="73">
-        <f t="shared" si="6"/>
+      <c r="E93" s="77"/>
+      <c r="F93" s="50">
+        <f t="shared" si="11"/>
         <v>884.19412828830752</v>
       </c>
-      <c r="G54" s="46"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="49"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="56">
-        <f t="shared" si="7"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="B55" s="57"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="69">
-        <f t="shared" si="5"/>
+      <c r="G93" s="53"/>
+      <c r="H93" s="28"/>
+      <c r="I93" s="59"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="25"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="B94" s="69">
+        <f t="shared" si="12"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C94" s="65"/>
+      <c r="D94" s="76">
+        <f t="shared" si="10"/>
         <v>92.592592592592595</v>
       </c>
-      <c r="E55" s="70"/>
-      <c r="F55" s="73">
-        <f t="shared" si="6"/>
+      <c r="E94" s="77"/>
+      <c r="F94" s="50">
+        <f t="shared" si="11"/>
         <v>884.19412828830752</v>
       </c>
-      <c r="G55" s="46"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="49"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="56">
-        <f t="shared" si="7"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="B56" s="57"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="69">
-        <f t="shared" si="5"/>
+      <c r="G94" s="53"/>
+      <c r="H94" s="28"/>
+      <c r="I94" s="59"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="25"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="B95" s="69">
+        <f t="shared" si="12"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C95" s="65"/>
+      <c r="D95" s="76">
+        <f t="shared" si="10"/>
         <v>92.592592592592595</v>
       </c>
-      <c r="E56" s="70"/>
-      <c r="F56" s="73">
-        <f t="shared" si="6"/>
+      <c r="E95" s="77"/>
+      <c r="F95" s="50">
+        <f t="shared" si="11"/>
         <v>884.19412828830752</v>
       </c>
-      <c r="G56" s="46"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="49"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="56">
-        <f t="shared" si="7"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="B57" s="57"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="69">
-        <f t="shared" si="5"/>
+      <c r="G95" s="53"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="59"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="25"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="B96" s="69">
+        <f t="shared" si="12"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C96" s="65"/>
+      <c r="D96" s="76">
+        <f t="shared" si="10"/>
         <v>92.592592592592595</v>
       </c>
-      <c r="E57" s="70"/>
-      <c r="F57" s="73">
-        <f t="shared" si="6"/>
+      <c r="E96" s="77"/>
+      <c r="F96" s="50">
+        <f t="shared" si="11"/>
         <v>884.19412828830752</v>
       </c>
-      <c r="G57" s="46"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="49"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="56">
-        <f t="shared" si="7"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="B58" s="57"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="69">
-        <f t="shared" si="5"/>
+      <c r="G96" s="53"/>
+      <c r="H96" s="28"/>
+      <c r="I96" s="59"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="25"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="B97" s="69">
+        <f t="shared" si="12"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C97" s="65"/>
+      <c r="D97" s="76">
+        <f t="shared" si="10"/>
         <v>92.592592592592595</v>
       </c>
-      <c r="E58" s="70"/>
-      <c r="F58" s="73">
-        <f t="shared" si="6"/>
+      <c r="E97" s="77"/>
+      <c r="F97" s="50">
+        <f t="shared" si="11"/>
         <v>884.19412828830752</v>
       </c>
-      <c r="G58" s="46"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="48"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="49"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="56">
-        <f t="shared" si="7"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="B59" s="57"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="69">
-        <f t="shared" si="5"/>
+      <c r="G97" s="53"/>
+      <c r="H97" s="28"/>
+      <c r="I97" s="59"/>
+      <c r="J97" s="15"/>
+      <c r="K97" s="25"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="B98" s="69">
+        <f t="shared" si="12"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C98" s="65"/>
+      <c r="D98" s="76">
+        <f t="shared" si="10"/>
         <v>92.592592592592595</v>
       </c>
-      <c r="E59" s="70"/>
-      <c r="F59" s="73">
-        <f t="shared" si="6"/>
+      <c r="E98" s="77"/>
+      <c r="F98" s="50">
+        <f t="shared" si="11"/>
         <v>884.19412828830752</v>
       </c>
-      <c r="G59" s="46"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="49"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="56">
-        <f t="shared" si="7"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="B60" s="57"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="69">
-        <f t="shared" si="5"/>
+      <c r="G98" s="53"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="59"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="25"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="B99" s="69">
+        <f t="shared" si="12"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C99" s="65"/>
+      <c r="D99" s="33">
+        <f t="shared" si="10"/>
         <v>92.592592592592595</v>
       </c>
-      <c r="E60" s="70"/>
-      <c r="F60" s="73">
-        <f t="shared" si="6"/>
+      <c r="E99" s="75"/>
+      <c r="F99" s="50">
+        <f t="shared" si="11"/>
         <v>884.19412828830752</v>
       </c>
-      <c r="G60" s="46"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="49"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="56">
-        <f t="shared" si="7"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="B61" s="57"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="69">
-        <f t="shared" si="5"/>
+      <c r="G99" s="53"/>
+      <c r="H99" s="28"/>
+      <c r="I99" s="59"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="25"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="B100" s="69">
+        <f t="shared" si="12"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C100" s="65"/>
+      <c r="D100" s="73">
+        <f t="shared" si="10"/>
         <v>92.592592592592595</v>
       </c>
-      <c r="E61" s="70"/>
-      <c r="F61" s="73">
-        <f t="shared" si="6"/>
+      <c r="E100" s="74"/>
+      <c r="F100" s="50">
+        <f t="shared" si="11"/>
         <v>884.19412828830752</v>
       </c>
-      <c r="G61" s="46"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="48"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="49"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="56">
-        <f t="shared" si="7"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="B62" s="57"/>
-      <c r="C62" s="58"/>
-      <c r="D62" s="69">
-        <f t="shared" si="5"/>
+      <c r="G100" s="53"/>
+      <c r="H100" s="28"/>
+      <c r="I100" s="59"/>
+      <c r="J100" s="15"/>
+      <c r="K100" s="25"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="B101" s="69">
+        <f t="shared" si="12"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C101" s="65"/>
+      <c r="D101" s="76">
+        <f t="shared" si="10"/>
         <v>92.592592592592595</v>
       </c>
-      <c r="E62" s="70"/>
-      <c r="F62" s="73">
-        <f t="shared" si="6"/>
+      <c r="E101" s="77"/>
+      <c r="F101" s="50">
+        <f t="shared" si="11"/>
         <v>884.19412828830752</v>
       </c>
-      <c r="G62" s="46"/>
-      <c r="H62" s="47"/>
-      <c r="I62" s="48"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="49"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="56">
-        <f t="shared" si="7"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="B63" s="57"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="69">
-        <f t="shared" si="5"/>
+      <c r="G101" s="53"/>
+      <c r="H101" s="28"/>
+      <c r="I101" s="59"/>
+      <c r="J101" s="15"/>
+      <c r="K101" s="25"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="B102" s="69">
+        <f t="shared" si="12"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C102" s="65"/>
+      <c r="D102" s="76">
+        <f t="shared" si="10"/>
         <v>92.592592592592595</v>
       </c>
-      <c r="E63" s="70"/>
-      <c r="F63" s="73">
-        <f t="shared" si="6"/>
+      <c r="E102" s="77"/>
+      <c r="F102" s="50">
+        <f t="shared" si="11"/>
         <v>884.19412828830752</v>
       </c>
-      <c r="G63" s="46"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="48"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="49"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="56">
-        <f t="shared" si="7"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="B64" s="57"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="69">
-        <f t="shared" si="5"/>
+      <c r="G102" s="53"/>
+      <c r="H102" s="28"/>
+      <c r="I102" s="59"/>
+      <c r="J102" s="15"/>
+      <c r="K102" s="25"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="B103" s="69">
+        <f t="shared" si="12"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C103" s="65"/>
+      <c r="D103" s="33">
+        <f t="shared" si="10"/>
         <v>92.592592592592595</v>
       </c>
-      <c r="E64" s="70"/>
-      <c r="F64" s="73">
-        <f t="shared" si="6"/>
+      <c r="E103" s="75"/>
+      <c r="F103" s="50">
+        <f t="shared" si="11"/>
         <v>884.19412828830752</v>
       </c>
-      <c r="G64" s="46"/>
-      <c r="H64" s="47"/>
-      <c r="I64" s="48"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="49"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="56">
-        <f t="shared" si="7"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="B65" s="57"/>
-      <c r="C65" s="58"/>
-      <c r="D65" s="69">
-        <f t="shared" si="5"/>
+      <c r="G103" s="53"/>
+      <c r="H103" s="28"/>
+      <c r="I103" s="59"/>
+      <c r="J103" s="15"/>
+      <c r="K103" s="25"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="B104" s="69">
+        <f t="shared" si="12"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C104" s="65"/>
+      <c r="D104" s="73">
+        <f t="shared" si="10"/>
         <v>92.592592592592595</v>
       </c>
-      <c r="E65" s="70"/>
-      <c r="F65" s="73">
-        <f t="shared" si="6"/>
+      <c r="E104" s="74"/>
+      <c r="F104" s="50">
+        <f t="shared" si="11"/>
         <v>884.19412828830752</v>
       </c>
-      <c r="G65" s="46"/>
-      <c r="H65" s="47"/>
-      <c r="I65" s="48"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="49"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="56">
-        <f t="shared" si="7"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="B66" s="57"/>
-      <c r="C66" s="58"/>
-      <c r="D66" s="69">
-        <f t="shared" si="5"/>
+      <c r="G104" s="53"/>
+      <c r="H104" s="28"/>
+      <c r="I104" s="59"/>
+      <c r="J104" s="15"/>
+      <c r="K104" s="25"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="B105" s="69">
+        <f t="shared" si="12"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C105" s="65"/>
+      <c r="D105" s="33">
+        <f t="shared" si="10"/>
         <v>92.592592592592595</v>
       </c>
-      <c r="E66" s="70"/>
-      <c r="F66" s="73">
-        <f t="shared" si="6"/>
+      <c r="E105" s="75"/>
+      <c r="F105" s="50">
+        <f t="shared" si="11"/>
         <v>884.19412828830752</v>
       </c>
-      <c r="G66" s="46"/>
-      <c r="H66" s="47"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="49"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="56">
-        <f t="shared" si="7"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="B67" s="57"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="69">
-        <f t="shared" si="5"/>
+      <c r="G105" s="53"/>
+      <c r="H105" s="28"/>
+      <c r="I105" s="59"/>
+      <c r="J105" s="15"/>
+      <c r="K105" s="25"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="B106" s="69">
+        <f t="shared" si="12"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C106" s="65"/>
+      <c r="D106" s="73">
+        <f t="shared" si="10"/>
         <v>92.592592592592595</v>
       </c>
-      <c r="E67" s="70"/>
-      <c r="F67" s="73">
-        <f t="shared" si="6"/>
+      <c r="E106" s="74"/>
+      <c r="F106" s="50">
+        <f t="shared" si="11"/>
         <v>884.19412828830752</v>
       </c>
-      <c r="G67" s="46"/>
-      <c r="H67" s="47"/>
-      <c r="I67" s="48"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="49"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="56">
-        <f t="shared" si="7"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="B68" s="57"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="69">
-        <f t="shared" si="5"/>
+      <c r="G106" s="53"/>
+      <c r="H106" s="28"/>
+      <c r="I106" s="59"/>
+      <c r="J106" s="15"/>
+      <c r="K106" s="25"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="B107" s="69">
+        <f t="shared" si="12"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C107" s="65"/>
+      <c r="D107" s="76">
+        <f t="shared" si="10"/>
         <v>92.592592592592595</v>
       </c>
-      <c r="E68" s="70"/>
-      <c r="F68" s="73">
-        <f t="shared" si="6"/>
+      <c r="E107" s="77"/>
+      <c r="F107" s="50">
+        <f t="shared" si="11"/>
         <v>884.19412828830752</v>
       </c>
-      <c r="G68" s="46"/>
-      <c r="H68" s="47"/>
-      <c r="I68" s="48"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="49"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="56">
-        <f t="shared" si="7"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="B69" s="57"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="69">
-        <f t="shared" si="5"/>
+      <c r="G107" s="53"/>
+      <c r="H107" s="28"/>
+      <c r="I107" s="59"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="25"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="B108" s="69">
+        <f t="shared" si="12"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C108" s="65"/>
+      <c r="D108" s="33">
+        <f t="shared" si="10"/>
         <v>92.592592592592595</v>
       </c>
-      <c r="E69" s="70"/>
-      <c r="F69" s="73">
-        <f t="shared" si="6"/>
+      <c r="E108" s="75"/>
+      <c r="F108" s="50">
+        <f t="shared" si="11"/>
         <v>884.19412828830752</v>
       </c>
-      <c r="G69" s="46"/>
-      <c r="H69" s="47"/>
-      <c r="I69" s="48"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="49"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="56">
-        <f t="shared" si="7"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="B70" s="57"/>
-      <c r="C70" s="58"/>
-      <c r="D70" s="69">
-        <f t="shared" si="5"/>
+      <c r="G108" s="53"/>
+      <c r="H108" s="28"/>
+      <c r="I108" s="59"/>
+      <c r="J108" s="15"/>
+      <c r="K108" s="25"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="B109" s="69">
+        <f t="shared" si="12"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C109" s="65"/>
+      <c r="D109" s="73">
+        <f t="shared" si="10"/>
         <v>92.592592592592595</v>
       </c>
-      <c r="E70" s="70"/>
-      <c r="F70" s="73">
-        <f t="shared" si="6"/>
+      <c r="E109" s="74"/>
+      <c r="F109" s="50">
+        <f t="shared" si="11"/>
         <v>884.19412828830752</v>
       </c>
-      <c r="G70" s="46"/>
-      <c r="H70" s="47"/>
-      <c r="I70" s="48"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="49"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="56">
-        <f t="shared" si="7"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="B71" s="57"/>
-      <c r="C71" s="58"/>
-      <c r="D71" s="69">
-        <f t="shared" si="5"/>
+      <c r="G109" s="53"/>
+      <c r="H109" s="28"/>
+      <c r="I109" s="59"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="25"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="B110" s="69">
+        <f t="shared" si="12"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C110" s="65"/>
+      <c r="D110" s="33">
+        <f t="shared" si="10"/>
         <v>92.592592592592595</v>
       </c>
-      <c r="E71" s="70"/>
-      <c r="F71" s="73">
-        <f t="shared" si="6"/>
+      <c r="E110" s="75"/>
+      <c r="F110" s="50">
+        <f t="shared" si="11"/>
         <v>884.19412828830752</v>
       </c>
-      <c r="G71" s="46"/>
-      <c r="H71" s="47"/>
-      <c r="I71" s="48"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="49"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="56">
-        <f t="shared" si="7"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="B72" s="57"/>
-      <c r="C72" s="58"/>
-      <c r="D72" s="69">
-        <f t="shared" si="5"/>
+      <c r="G110" s="53"/>
+      <c r="H110" s="28"/>
+      <c r="I110" s="59"/>
+      <c r="J110" s="15"/>
+      <c r="K110" s="25"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="B111" s="69">
+        <f t="shared" si="12"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C111" s="65"/>
+      <c r="D111" s="33">
+        <f t="shared" si="10"/>
         <v>92.592592592592595</v>
       </c>
-      <c r="E72" s="70"/>
-      <c r="F72" s="73">
-        <f t="shared" si="6"/>
+      <c r="E111" s="75"/>
+      <c r="F111" s="50">
+        <f t="shared" si="11"/>
         <v>884.19412828830752</v>
       </c>
-      <c r="G72" s="46"/>
-      <c r="H72" s="47"/>
-      <c r="I72" s="48"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="49"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="56">
-        <f t="shared" si="7"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="B73" s="57"/>
-      <c r="C73" s="58"/>
-      <c r="D73" s="69">
-        <f t="shared" si="5"/>
+      <c r="G111" s="53"/>
+      <c r="H111" s="28"/>
+      <c r="I111" s="59"/>
+      <c r="J111" s="15"/>
+      <c r="K111" s="25"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="B112" s="69">
+        <f t="shared" si="12"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C112" s="65"/>
+      <c r="D112" s="33">
+        <f t="shared" si="10"/>
         <v>92.592592592592595</v>
       </c>
-      <c r="E73" s="70"/>
-      <c r="F73" s="73">
-        <f t="shared" si="6"/>
+      <c r="E112" s="75"/>
+      <c r="F112" s="50">
+        <f t="shared" si="11"/>
         <v>884.19412828830752</v>
       </c>
-      <c r="G73" s="46"/>
-      <c r="H73" s="47"/>
-      <c r="I73" s="48"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="49"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="56">
-        <f t="shared" si="7"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="B74" s="57"/>
-      <c r="C74" s="58"/>
-      <c r="D74" s="69">
-        <f t="shared" si="5"/>
+      <c r="G112" s="53"/>
+      <c r="H112" s="28"/>
+      <c r="I112" s="59"/>
+      <c r="J112" s="15"/>
+      <c r="K112" s="25"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="B113" s="69">
+        <f t="shared" si="12"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C113" s="65"/>
+      <c r="D113" s="73">
+        <f t="shared" si="10"/>
         <v>92.592592592592595</v>
       </c>
-      <c r="E74" s="70"/>
-      <c r="F74" s="73">
-        <f t="shared" si="6"/>
+      <c r="E113" s="74"/>
+      <c r="F113" s="50">
+        <f t="shared" si="11"/>
         <v>884.19412828830752</v>
       </c>
-      <c r="G74" s="46"/>
-      <c r="H74" s="47"/>
-      <c r="I74" s="48"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="49"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="56">
-        <f t="shared" si="7"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="B75" s="57"/>
-      <c r="C75" s="58"/>
-      <c r="D75" s="69">
-        <f t="shared" si="5"/>
+      <c r="G113" s="53"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="59"/>
+      <c r="J113" s="15"/>
+      <c r="K113" s="25"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="B114" s="69">
+        <f t="shared" si="12"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C114" s="65"/>
+      <c r="D114" s="76">
+        <f t="shared" si="10"/>
         <v>92.592592592592595</v>
       </c>
-      <c r="E75" s="70"/>
-      <c r="F75" s="73">
-        <f t="shared" si="6"/>
+      <c r="E114" s="77"/>
+      <c r="F114" s="50">
+        <f t="shared" si="11"/>
         <v>884.19412828830752</v>
       </c>
-      <c r="G75" s="46"/>
-      <c r="H75" s="47"/>
-      <c r="I75" s="48"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="49"/>
-    </row>
-    <row r="76" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="63">
-        <f t="shared" si="7"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="B76" s="64"/>
-      <c r="C76" s="65"/>
-      <c r="D76" s="71">
-        <f t="shared" si="5"/>
+      <c r="G114" s="53"/>
+      <c r="H114" s="28"/>
+      <c r="I114" s="59"/>
+      <c r="J114" s="15"/>
+      <c r="K114" s="25"/>
+    </row>
+    <row r="115" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="B115" s="70">
+        <f t="shared" si="12"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C115" s="66"/>
+      <c r="D115" s="33">
+        <f t="shared" si="10"/>
         <v>92.592592592592595</v>
       </c>
-      <c r="E76" s="72"/>
-      <c r="F76" s="73">
-        <f t="shared" si="6"/>
+      <c r="E115" s="75"/>
+      <c r="F115" s="51">
+        <f t="shared" si="11"/>
         <v>884.19412828830752</v>
       </c>
-      <c r="G76" s="46"/>
-      <c r="H76" s="47"/>
-      <c r="I76" s="48"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="49"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="60"/>
-      <c r="B77" s="60"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="60"/>
-      <c r="E77" s="60"/>
-      <c r="G77" s="59"/>
-      <c r="H77" s="59"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="60"/>
-      <c r="B78" s="60"/>
-      <c r="C78" s="60"/>
-      <c r="D78" s="60"/>
-      <c r="E78" s="60"/>
-      <c r="G78" s="60"/>
-      <c r="H78" s="60"/>
-    </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E81" s="3"/>
+      <c r="G115" s="54"/>
+      <c r="H115" s="55"/>
+      <c r="I115" s="60"/>
+      <c r="J115" s="61"/>
+      <c r="K115" s="62"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" s="27"/>
+      <c r="B116" s="27"/>
+      <c r="C116" s="27"/>
+      <c r="D116" s="27"/>
+      <c r="E116" s="27"/>
+      <c r="G116" s="27"/>
+      <c r="H116" s="27"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" s="27"/>
+      <c r="B117" s="27"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="27"/>
+      <c r="E117" s="27"/>
+      <c r="G117" s="27"/>
+      <c r="H117" s="27"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E120" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="116">
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:C50"/>
+  <mergeCells count="117">
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="L1:V1"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A79:K79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
   </mergeCells>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>